--- a/data/sklearn/Noisy Circles.xlsx
+++ b/data/sklearn/Noisy Circles.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,16 +446,16 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Label</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.684592258391763</v>
+        <v>0.9438595500020064</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7732281250193931</v>
+        <v>0.4315924383682154</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.669513988859298</v>
+        <v>0.9354065292502476</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4492652094369123</v>
+        <v>-0.2509243896245978</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.576099182657676</v>
+        <v>-0.8841149637130902</v>
       </c>
       <c r="B4" t="n">
-        <v>1.096553372884216</v>
+        <v>0.6121046067072209</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7035604194802397</v>
+        <v>0.3938838067908816</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5885712127136633</v>
+        <v>0.3284986655830204</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.548362999650935</v>
+        <v>0.86748813691289</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7928488493196704</v>
+        <v>0.4425466694751707</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.234063011124305</v>
+        <v>0.6912885856598228</v>
       </c>
       <c r="B7" t="n">
-        <v>1.147950138382581</v>
+        <v>0.6407993704072096</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6921632685881149</v>
+        <v>0.387494456023897</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3873520420086265</v>
+        <v>-0.2163583290554946</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.6401436298347847</v>
+        <v>0.3583317537035727</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7001854037253107</v>
+        <v>0.3908127588063862</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6898827015841835</v>
+        <v>0.3862159485553508</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6543923508423063</v>
+        <v>0.3652465423560399</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.308700744161853</v>
+        <v>-0.7342088657536153</v>
       </c>
       <c r="B11" t="n">
-        <v>1.050317778145211</v>
+        <v>0.5862913195732987</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2367296726116509</v>
+        <v>0.132174067331537</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.8981122543151063</v>
+        <v>-0.501515253958805</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1177027943886409</v>
+        <v>0.0654464717364425</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9309116973465695</v>
+        <v>0.5196270219344182</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.35887307135892</v>
+        <v>-0.7623359477140278</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.286395477198283</v>
+        <v>-0.7182933959540848</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.854433395058564</v>
+        <v>1.039074100296098</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07501488075271331</v>
+        <v>0.0417806698227418</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.598547337628936</v>
+        <v>-0.8966996120642944</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.508677680845832</v>
+        <v>-0.2840943140620703</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.658783125609135</v>
+        <v>0.9293907056477707</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.5827195233584489</v>
+        <v>-0.3254318020189513</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.446929341559022</v>
+        <v>0.2500139931797427</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.5505511738121479</v>
+        <v>-0.3074722440604042</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.3727568583436981</v>
+        <v>-0.2095098562108969</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.823565619769268</v>
+        <v>-1.01819495898637</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.350393148258699</v>
+        <v>0.7565043626516548</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9478182382223341</v>
+        <v>0.52906592710112</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.212833815566583</v>
+        <v>-0.6804649573377064</v>
       </c>
       <c r="B21" t="n">
-        <v>1.261963990867357</v>
+        <v>0.7044531922742695</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.1418037609732393</v>
+        <v>-0.08003536177026868</v>
       </c>
       <c r="B22" t="n">
-        <v>1.897097764834049</v>
+        <v>1.059047754502817</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.6421484836457018</v>
+        <v>0.3594556937440021</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5987738579757774</v>
+        <v>0.3341947924126452</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.616282755102388</v>
+        <v>0.9055645952922386</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.6749396477222412</v>
+        <v>-0.3769182068801043</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7856165173300275</v>
+        <v>0.4398852326467573</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.3404816074481268</v>
+        <v>-0.19019061147272</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.722871463990185</v>
+        <v>0.9653192353185218</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03794093436430902</v>
+        <v>0.02108232196512923</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.4466596152176199</v>
+        <v>-0.2509404418707695</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.6955972305254693</v>
+        <v>-0.3884513150709383</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.06673623793946357</v>
+        <v>-0.03795179716616162</v>
       </c>
       <c r="B28" t="n">
-        <v>1.06576609772925</v>
+        <v>0.5949161012249765</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7049980867556831</v>
+        <v>0.3946897766859868</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1292631362258721</v>
+        <v>-0.07226754643104541</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.6772330762801507</v>
+        <v>-0.3802021086004906</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.7122790357348514</v>
+        <v>-0.3977647505358156</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.6170542303066949</v>
+        <v>-0.3464652774120544</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.6235100218780054</v>
+        <v>-0.348205097281289</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.4636198688693934</v>
+        <v>-0.2604485207497717</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.81408365959906</v>
+        <v>-1.012901189935758</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-1.66689336016564</v>
+        <v>-0.935015039810099</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2900061459476727</v>
+        <v>0.1618100820340441</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.745314631510611</v>
+        <v>0.9779010876575376</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.7125580621824765</v>
+        <v>-0.3979205307274875</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.2125096897233493</v>
+        <v>-0.119673775297112</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.669617972918285</v>
+        <v>-0.9322461389444017</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.678560864078528</v>
+        <v>0.940478293208444</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5737116406631314</v>
+        <v>0.3202025811010789</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5267404768671087</v>
+        <v>0.294756871765916</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.7896394248611052</v>
+        <v>-0.4409549798078817</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8045775229569289</v>
+        <v>0.4505149520381845</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.6690453613613586</v>
+        <v>-0.3736274325937152</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.5657147754432638</v>
+        <v>-0.3176838926244848</v>
       </c>
       <c r="B39" t="n">
-        <v>1.735240961975568</v>
+        <v>0.9686832604295963</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-1.832850023938134</v>
+        <v>-1.02805191779806</v>
       </c>
       <c r="B40" t="n">
-        <v>0.295353470053829</v>
+        <v>0.1647954878308016</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.746868341999363</v>
+        <v>-0.9798497723108295</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.2678229009028913</v>
+        <v>-0.1496253269680237</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.015972449507795</v>
+        <v>0.5690249506228063</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.1118819030739484</v>
+        <v>-0.06256362103276875</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.622379870262474</v>
+        <v>-0.9100603556485968</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.02074560434407401</v>
+        <v>-0.01168231495858616</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.574865063158444</v>
+        <v>0.8823454447963348</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.947588244171967</v>
+        <v>-0.5291376505045723</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.8790931425199071</v>
+        <v>-0.493366774161227</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1280854675094137</v>
+        <v>0.07140992628736689</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.9523072046208079</v>
+        <v>-0.5344112710066347</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3679565421199479</v>
+        <v>0.2053297116604468</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.5293828225903432</v>
+        <v>-0.2973158556454132</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8005573629282469</v>
+        <v>0.4468503250521599</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.6916929167229621</v>
+        <v>0.3872307723121683</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.697191358390798</v>
+        <v>-0.9476403329733555</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1284903834708425</v>
+        <v>0.07149409637778216</v>
       </c>
       <c r="B49" t="n">
-        <v>1.547030226458414</v>
+        <v>0.863605391635741</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.05664271587345471</v>
+        <v>-0.03229327306970592</v>
       </c>
       <c r="B50" t="n">
-        <v>1.977079453663678</v>
+        <v>1.103701452824848</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1.834474876109156</v>
+        <v>-1.02896282531902</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.3687446551068359</v>
+        <v>-0.2059698432228963</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.33819776761427</v>
+        <v>0.7496675167230819</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9421165824956932</v>
+        <v>0.5258826983086416</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.1610236447318456</v>
+        <v>-0.09081021069494689</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8753469538691749</v>
+        <v>0.4886052802221888</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.762570361200558</v>
+        <v>0.9875748132028865</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.3701119584477884</v>
+        <v>-0.2067332073352953</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.7333164864166573</v>
+        <v>-0.4116429996584833</v>
       </c>
       <c r="B55" t="n">
-        <v>1.770016812959128</v>
+        <v>0.988098583879688</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.2136185785852029</v>
+        <v>0.1192177690652946</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8746880028964641</v>
+        <v>-0.4884375173971836</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.95616437340299</v>
+        <v>-0.5365736363688282</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.2029045382349783</v>
+        <v>-0.1133814688480965</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8770840789855667</v>
+        <v>0.4911628142765534</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.565220921910496</v>
+        <v>-0.8739613678970989</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8056754928398628</v>
+        <v>-0.4522081441901585</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.1618447510703823</v>
+        <v>-0.09045782999970678</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.7226686848469517</v>
+        <v>-0.4056737412209989</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2142576963373733</v>
+        <v>0.1195197970106186</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.8263263438813053</v>
+        <v>-0.4637852069306105</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.4113820554239303</v>
+        <v>-0.2297742619449218</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1344839974318197</v>
+        <v>0.07485417314793708</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.711684569499052</v>
+        <v>-0.955731878501033</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.862410685316825</v>
+        <v>-0.4840144306032109</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03714121710152646</v>
+        <v>0.0206358406027354</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.2833560983969223</v>
+        <v>0.1583132833665485</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8335478257966121</v>
+        <v>0.465268868071002</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.127813430103952</v>
+        <v>-0.6328017237623447</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.244242246222363</v>
+        <v>-0.6947592884997253</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.7302621229520672</v>
+        <v>-0.4099306945631272</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2046989834753365</v>
+        <v>0.1141831770075387</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2790877243185214</v>
+        <v>0.1559203924195266</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.592700995155279</v>
+        <v>-0.889303465800954</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.5944991967678439</v>
+        <v>-0.3338207119232883</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.704734325394342</v>
+        <v>-0.9518515640433416</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.02306306481544076</v>
+        <v>0.0123905427188168</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.8609958821030446</v>
+        <v>-0.4807932198055118</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-1.370595780566862</v>
+        <v>-0.7689078095572061</v>
       </c>
       <c r="B70" t="n">
-        <v>1.304701094141234</v>
+        <v>0.7283132750591467</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.1640621351357895</v>
+        <v>-0.09251361720212312</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.074708878434045</v>
+        <v>-0.6001089757654779</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.6686326708060745</v>
+        <v>-0.3753806398112919</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5879097244715653</v>
+        <v>0.3281293573471173</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9851643693426445</v>
+        <v>0.5517536490057909</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.438038088154284</v>
+        <v>-0.802955316719705</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.66650666714669</v>
+        <v>-0.9347982560401372</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6719945626806157</v>
+        <v>0.3750738399378984</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.48682221383309</v>
+        <v>0.2723783153225388</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.7932462872007777</v>
+        <v>-0.4429686875097524</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-1.356496169361959</v>
+        <v>-0.7610034339357094</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.431173304498958</v>
+        <v>-0.7991227147469718</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.780138867168818</v>
+        <v>-0.4378920699044149</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.3305960076724739</v>
+        <v>-0.1846714908268101</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.3408574269026751</v>
+        <v>-0.1916267327291409</v>
       </c>
       <c r="B78" t="n">
-        <v>0.774648428568033</v>
+        <v>0.4323853924445135</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.8731519143589102</v>
+        <v>-0.4900360653668454</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.483147869249143</v>
+        <v>-0.8281400632017838</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.4493131890908981</v>
+        <v>-0.2524280605241468</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.752943557922957</v>
+        <v>-0.4204677133360282</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.2820040976815988</v>
+        <v>-0.1586329987900637</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.635090161293264</v>
+        <v>-0.9129692956245786</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.194701524051848</v>
+        <v>0.6692221630954052</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.19507017801782</v>
+        <v>-0.6673065711139601</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.9371010579229591</v>
+        <v>-0.5258865611044506</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.02315511397412334</v>
+        <v>-0.0130275418186171</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-1.262134851146539</v>
+        <v>-0.7081035849629304</v>
       </c>
       <c r="B84" t="n">
-        <v>1.289914539605198</v>
+        <v>0.7200579561838361</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.7349882472397657</v>
+        <v>-0.412580204614217</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.653115527991649</v>
+        <v>-0.9230328401492287</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8314816894334718</v>
+        <v>0.4655976826556024</v>
       </c>
       <c r="B86" t="n">
-        <v>1.700368703233007</v>
+        <v>0.9492141126223383</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.193661919556263</v>
+        <v>0.6686393509659445</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.169122095807102</v>
+        <v>-0.6528197822998252</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.6208977062874711</v>
+        <v>0.3475423066266436</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.665640611549761</v>
+        <v>-0.9300255819985978</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.6611919239256853</v>
+        <v>-0.3712092866163453</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5486124694767179</v>
+        <v>0.3061897384780816</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.215713690573054</v>
+        <v>0.6810017827169236</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.320706455865991</v>
+        <v>-0.7374491816467966</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.4913475094923107</v>
+        <v>0.274915238941849</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9337718281627994</v>
+        <v>0.5212238301601302</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.5865164314002641</v>
+        <v>-0.3293454980293277</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7555185949410501</v>
+        <v>0.4217052251183455</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.4934564465213821</v>
+        <v>-0.2771751888538728</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7433547566201667</v>
+        <v>0.414914166130135</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-1.893407079142691</v>
+        <v>-1.062000776664614</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.1372340715063362</v>
+        <v>-0.07671771176972016</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9352148643241867</v>
+        <v>0.5237514832697288</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.00721387310640283</v>
+        <v>-0.004127562698367046</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-1.436033136800307</v>
+        <v>-0.8055926114166347</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.9621132984802553</v>
+        <v>-0.5372469740595553</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.908830443209239</v>
+        <v>1.069569600848203</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.3622681214586989</v>
+        <v>-0.2023540008478692</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-1.622594614166064</v>
+        <v>-0.9101807431154378</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.6631568850893212</v>
+        <v>-0.3703399020742221</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.709555639567724</v>
+        <v>0.9578542579928753</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08303761944583196</v>
+        <v>0.04625975695582446</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.7509546326380462</v>
+        <v>0.4204534517009709</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.6982282690856761</v>
+        <v>-0.3899202213151084</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8903463564393816</v>
+        <v>0.4985977726642717</v>
       </c>
       <c r="B101" t="n">
-        <v>1.648201964266808</v>
+        <v>0.9200894734914643</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.7567596225008942</v>
+        <v>-0.4247854438480961</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1497104088344547</v>
+        <v>0.08348310979086776</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.6804697471148504</v>
+        <v>0.3809389571013042</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.2598257821275354</v>
+        <v>-0.1451605434098662</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.9264134192267365</v>
+        <v>0.5188173097630129</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3124736548417134</v>
+        <v>0.1743536701838158</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1.127790104651393</v>
+        <v>-0.6327886472926543</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.308598453077721</v>
+        <v>-0.7306892955816068</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.3560719056348139</v>
+        <v>-0.2001561136486857</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.8845940834897562</v>
+        <v>-0.4939680724634669</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.09605006379385</v>
+        <v>0.6139172198486567</v>
       </c>
       <c r="B107" t="n">
-        <v>1.470109396705395</v>
+        <v>0.8206605679300519</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.4667733872067489</v>
+        <v>0.2611387531727855</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.7280645281283014</v>
+        <v>-0.4065777754358441</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.373369698090243</v>
+        <v>0.769385234167559</v>
       </c>
       <c r="B109" t="n">
-        <v>1.004422911833176</v>
+        <v>0.5606682607855178</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.9804453045158602</v>
+        <v>-0.5501857563887814</v>
       </c>
       <c r="B110" t="n">
-        <v>1.441739973934926</v>
+        <v>0.8048219470594533</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.2370418258620098</v>
+        <v>0.132349063401035</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.746022669511037</v>
+        <v>-0.9749028060136179</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.3945600695437981</v>
+        <v>0.2206552831403676</v>
       </c>
       <c r="B112" t="n">
-        <v>1.865372338026537</v>
+        <v>1.041335479874332</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.6913387509091199</v>
+        <v>0.3870322236015536</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.4904382907258909</v>
+        <v>-0.273911280471362</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.104939722741612</v>
+        <v>-0.6199785067090076</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.182089607840158</v>
+        <v>-0.6600595315322381</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.9261224135505535</v>
+        <v>0.5186541692239506</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.485388075972901</v>
+        <v>-0.8293907684155076</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-1.706105451379522</v>
+        <v>-0.9569977096408194</v>
       </c>
       <c r="B116" t="n">
-        <v>0.04110802155917007</v>
+        <v>0.02285050363556311</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.097830773254163</v>
+        <v>0.6149155024425891</v>
       </c>
       <c r="B117" t="n">
-        <v>1.400615073770436</v>
+        <v>0.7818619556871713</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1.722435824834056</v>
+        <v>-0.966152671713751</v>
       </c>
       <c r="B118" t="n">
-        <v>0.426343181728876</v>
+        <v>0.2379269152114731</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.07114176790764451</v>
+        <v>0.03934391917100194</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.650369518381245</v>
+        <v>-0.9214997456806482</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.763827651641227</v>
+        <v>0.4276701881134206</v>
       </c>
       <c r="B120" t="n">
-        <v>1.829442860349098</v>
+        <v>1.021276087774048</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.3859953074283107</v>
+        <v>0.2158537963556798</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.9187280858711688</v>
+        <v>-0.5130250524693515</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.2528666916950639</v>
+        <v>0.1412206331121738</v>
       </c>
       <c r="B122" t="n">
-        <v>1.060167049315874</v>
+        <v>0.5917901579947218</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.2215349298021471</v>
+        <v>-0.12473341039061</v>
       </c>
       <c r="B123" t="n">
-        <v>1.58501888472216</v>
+        <v>0.8848144222350007</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.005606062785856553</v>
+        <v>-0.003681641826419018</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.8739424524144084</v>
+        <v>-0.4880212772952713</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.5562502948854793</v>
+        <v>-0.3123780151570928</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.743917807720182</v>
+        <v>-0.9737276637430085</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-1.882873149334996</v>
+        <v>-1.056095355815736</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.1912076263169008</v>
+        <v>-0.1068510944119953</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.5525819280213421</v>
+        <v>-0.3103214939388689</v>
       </c>
       <c r="B127" t="n">
-        <v>0.6443589791643921</v>
+        <v>0.3596449208022271</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.498502532487312</v>
+        <v>0.8395358866417951</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.049458123502825</v>
+        <v>-0.5860115040866285</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1.53451540560332</v>
+        <v>-0.8608027043307951</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.6210734764725646</v>
+        <v>-0.3468447763744094</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.523914897488667</v>
+        <v>0.8537822992188622</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4600040374698962</v>
+        <v>0.2567197379127129</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.8679241357095761</v>
+        <v>0.4860276632945279</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6058980661387878</v>
+        <v>0.3381722308332324</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.2356533336714457</v>
+        <v>0.131570661524399</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.8914476170362646</v>
+        <v>-0.4977943935114959</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-0.8983736458579591</v>
+        <v>-0.5041756069964538</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3413906263539741</v>
+        <v>0.1904979869791988</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-0.01163586834445338</v>
+        <v>-0.007062007949079525</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.9696734929997745</v>
+        <v>-0.5414678232347909</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.8552001491093879</v>
+        <v>0.4788944758591323</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1487849412435761</v>
+        <v>0.08296642214379973</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1.36722388064092</v>
+        <v>-0.7670174905132685</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.08436099013916</v>
+        <v>-0.60549774025092</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.829170075172898</v>
+        <v>1.024911243822942</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.02121767696675833</v>
+        <v>-0.01194587264019925</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.9053947364466555</v>
+        <v>-0.5081116968984444</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2567279491791326</v>
+        <v>0.1432308974613233</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-1.055739779383805</v>
+        <v>-0.5923965523412704</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.340950148499485</v>
+        <v>-0.7487512153623571</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-0.8688973289327384</v>
+        <v>-0.487650904468897</v>
       </c>
       <c r="B140" t="n">
-        <v>0.2190164494126747</v>
+        <v>0.1221766041788968</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.5945689096905695</v>
+        <v>0.3327821338148198</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.5600315797214708</v>
+        <v>-0.3127651453686908</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-0.3246537412914536</v>
+        <v>-0.1825427930614145</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.8323308855794306</v>
+        <v>-0.4647895803988208</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-0.5725892050784077</v>
+        <v>-0.3215377630064449</v>
       </c>
       <c r="B143" t="n">
-        <v>1.553687810694704</v>
+        <v>0.8673223143763208</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.5534682742577206</v>
+        <v>0.3097407282028362</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6069982692113082</v>
+        <v>0.33878647312809</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.7654547615813879</v>
+        <v>0.4285823613611502</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.01983284715996758</v>
+        <v>-0.01117272351913588</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.1261353861994901</v>
+        <v>0.07017386259616576</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.8290130156924912</v>
+        <v>-0.4629372168994861</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2047,10 +2047,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.319220981088606</v>
+        <v>0.7390289504103</v>
       </c>
       <c r="B147" t="n">
-        <v>1.350868357454847</v>
+        <v>0.7540884128253824</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.655483017347158</v>
+        <v>0.927540633690808</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.4705911297424887</v>
+        <v>-0.2628306299866059</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-0.03917987156799182</v>
+        <v>-0.0225034371086905</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.829868239658548</v>
+        <v>-1.021713705480631</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.3118392119985954</v>
+        <v>0.1742811867012943</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.5291938709443167</v>
+        <v>-0.2955484828447107</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.7471711915846143</v>
+        <v>-0.4194100786354231</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4644533098870312</v>
+        <v>0.2592037623334837</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.770189690338353</v>
+        <v>0.9918462813032269</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5776647598405013</v>
+        <v>0.3224096036553704</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-1.625038694792839</v>
+        <v>-0.9115509178700818</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.5314493350399779</v>
+        <v>-0.2968077062341838</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-0.9664476533245527</v>
+        <v>-0.5423385405168775</v>
       </c>
       <c r="B154" t="n">
-        <v>0.08298999478261686</v>
+        <v>0.04623316815312455</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-0.8884711921580598</v>
+        <v>-0.498624197636225</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1316321993987316</v>
+        <v>0.07339006321785968</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.494925446828315</v>
+        <v>-0.2779987243432807</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.6217993997263828</v>
+        <v>-0.3472500586140729</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.6802502034065876</v>
+        <v>0.3808158788184899</v>
       </c>
       <c r="B157" t="n">
-        <v>-1.534869965894352</v>
+        <v>-0.8570164589615412</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.8548838943845228</v>
+        <v>0.4787171804641687</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0315534553703362</v>
+        <v>0.0175161987160598</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.647437344344718</v>
+        <v>0.3624206791586538</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1411105840866768</v>
+        <v>0.07868183608023613</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.2632032595006384</v>
+        <v>0.1470154109528506</v>
       </c>
       <c r="B160" t="n">
-        <v>0.8604750130615908</v>
+        <v>0.4803022902753329</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-0.9297249451346283</v>
+        <v>-0.5217514423938568</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.400530885728899</v>
+        <v>-0.7820150824421548</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.9485424598824633</v>
+        <v>-0.5323007194390438</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.4509691474404722</v>
+        <v>-0.2518756965385151</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-0.6627689286980721</v>
+        <v>-0.3720933704323235</v>
       </c>
       <c r="B163" t="n">
-        <v>0.557699005699044</v>
+        <v>0.3112627427269448</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.7832653263610749</v>
+        <v>-0.4396447925477375</v>
       </c>
       <c r="B164" t="n">
-        <v>0.245755041946761</v>
+        <v>0.1371047341301928</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.8048272810440327</v>
+        <v>0.4506549687880287</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.06973360439012199</v>
+        <v>-0.03903226727224068</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.1558475274642282</v>
+        <v>0.08683077048266102</v>
       </c>
       <c r="B166" t="n">
-        <v>1.927945545161491</v>
+        <v>1.076270039963431</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.2607679533371628</v>
+        <v>-0.146727815078872</v>
       </c>
       <c r="B167" t="n">
-        <v>0.98209336441833</v>
+        <v>0.5482016963940857</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.743605153737646</v>
+        <v>0.9769427382223834</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2336813875862657</v>
+        <v>0.1303640247584957</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.167692296022108</v>
+        <v>0.09347105995380753</v>
       </c>
       <c r="B169" t="n">
-        <v>0.9065410987769631</v>
+        <v>0.5060209406878392</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.476659606748803</v>
+        <v>0.8272905355324259</v>
       </c>
       <c r="B170" t="n">
-        <v>0.5963951878961976</v>
+        <v>0.3328667832433532</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.8082418487818043</v>
+        <v>-0.4536468676449239</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.3661805878829178</v>
+        <v>-0.2045383270100024</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-1.415471960958942</v>
+        <v>-0.7940658214429309</v>
       </c>
       <c r="B172" t="n">
-        <v>1.381355475186284</v>
+        <v>0.7711093407128602</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-1.589374185279916</v>
+        <v>-0.8915570559507862</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.8494406706721651</v>
+        <v>-0.4743419566122466</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-1.412292829170636</v>
+        <v>-0.7922835700432419</v>
       </c>
       <c r="B174" t="n">
-        <v>1.094891778694327</v>
+        <v>0.6111769403028897</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.5225450690574721</v>
+        <v>-0.2934825462338576</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.8471206235963493</v>
+        <v>-0.4730466766083812</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-1.673454758281552</v>
+        <v>-0.9386934217567099</v>
       </c>
       <c r="B176" t="n">
-        <v>0.6834599675541654</v>
+        <v>0.3814749642184073</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.08814368364782109</v>
+        <v>-0.04995301404488063</v>
       </c>
       <c r="B177" t="n">
-        <v>0.8942111693084165</v>
+        <v>0.4991371531750097</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.6716916398829726</v>
+        <v>0.3760178670231314</v>
       </c>
       <c r="B178" t="n">
-        <v>0.6241456034753728</v>
+        <v>0.3483598130069915</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.8312754292976893</v>
+        <v>0.4654820512693697</v>
       </c>
       <c r="B179" t="n">
-        <v>0.08593712437652935</v>
+        <v>0.04787854771097343</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-1.546344071688094</v>
+        <v>-0.8674339666029631</v>
       </c>
       <c r="B180" t="n">
-        <v>1.065272798655346</v>
+        <v>0.5946406928364948</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-1.425953687285922</v>
+        <v>-0.7999419765259427</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.9800869594935004</v>
+        <v>-0.5472816513509731</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.3070568215793913</v>
+        <v>0.171600133323816</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.821259523853327</v>
+        <v>-1.016907467901361</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-0.1795651261934823</v>
+        <v>-0.1012047408647456</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8508785547179083</v>
+        <v>0.4749445970069207</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.2092122483610716</v>
+        <v>0.1167475385959766</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.770616778605418</v>
+        <v>-0.9886336729666646</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.6219600382620308</v>
+        <v>0.3481378599961386</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.8039556655632394</v>
+        <v>-0.4489477229316288</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.635175499850571</v>
+        <v>0.9161560469883514</v>
       </c>
       <c r="B186" t="n">
-        <v>0.3507323582112626</v>
+        <v>0.195713466700429</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-0.1428338730643569</v>
+        <v>-0.08061285236785391</v>
       </c>
       <c r="B187" t="n">
-        <v>1.84202372529771</v>
+        <v>1.028299972318949</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.4492722411610829</v>
+        <v>0.2513274448933405</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.665075326594052</v>
+        <v>-0.9297099839630026</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.3145265787135053</v>
+        <v>-0.1768654097752547</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.7412812439682762</v>
+        <v>-0.413956654908912</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.427011045180647</v>
+        <v>0.7994570815457477</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.333227716996863</v>
+        <v>-0.7444397894387916</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-1.759986241817734</v>
+        <v>-0.9872037912282815</v>
       </c>
       <c r="B191" t="n">
-        <v>0.2257289377813612</v>
+        <v>0.1259241798426709</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.519501409094239</v>
+        <v>0.8513080558114593</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.9902983677132529</v>
+        <v>-0.5529826705312409</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.4788803154917792</v>
+        <v>0.2679260118706795</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.8471608751307818</v>
+        <v>-0.4730691490005231</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.3596660198205323</v>
+        <v>-0.2021710081119167</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.7792358252837748</v>
+        <v>-0.4351466603814328</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.817034104762056</v>
+        <v>1.018107703834172</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.3854451587037688</v>
+        <v>-0.2152937179791791</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-0.02176690588593262</v>
+        <v>-0.01274156357650638</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.6792289179785513</v>
+        <v>-0.3793129022516277</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9389139882860668</v>
+        <v>0.525825247208341</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.2648762874400448</v>
+        <v>-0.1479802355656422</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.440663562680631</v>
+        <v>0.8071108122004913</v>
       </c>
       <c r="B198" t="n">
-        <v>-1.196611559000421</v>
+        <v>-0.6681671226027261</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.9724709210378829</v>
+        <v>0.5446375816281318</v>
       </c>
       <c r="B199" t="n">
-        <v>0.3870841486058486</v>
+        <v>0.2160086355759361</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-0.7454044072292673</v>
+        <v>-0.4184196025872614</v>
       </c>
       <c r="B200" t="n">
-        <v>1.66281825407926</v>
+        <v>0.9282497337388173</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.2058869626662499</v>
+        <v>-0.1159610117650396</v>
       </c>
       <c r="B201" t="n">
-        <v>0.7508652605451823</v>
+        <v>0.4191072730952615</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.4956295389147027</v>
+        <v>0.2773157852040834</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.6954337562865207</v>
+        <v>-0.3883600475638846</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-1.570791811117743</v>
+        <v>-0.8811396009456481</v>
       </c>
       <c r="B203" t="n">
-        <v>0.4364924087128409</v>
+        <v>0.2435932186688703</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.8704975030243657</v>
+        <v>0.4874703173913377</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.1952715215466934</v>
+        <v>-0.1091199631275591</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-1.747079939397405</v>
+        <v>-0.9799683958168507</v>
       </c>
       <c r="B205" t="n">
-        <v>0.9623269078307585</v>
+        <v>0.5371661030942605</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-0.1504959987925502</v>
+        <v>-0.08490831264222756</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.894070321703643</v>
+        <v>-0.4992586469514847</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-0.7701105867403603</v>
+        <v>-0.4322701208880709</v>
       </c>
       <c r="B207" t="n">
-        <v>0.4083477700767006</v>
+        <v>0.2278800945597025</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.5537395837257878</v>
+        <v>0.3098928268610265</v>
       </c>
       <c r="B208" t="n">
-        <v>0.4721711709802656</v>
+        <v>0.2635126366019771</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-0.5913389494302509</v>
+        <v>-0.3320490473255805</v>
       </c>
       <c r="B209" t="n">
-        <v>0.3897623654520115</v>
+        <v>0.2175038814108208</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1.051646857476581</v>
+        <v>0.589024361710238</v>
       </c>
       <c r="B210" t="n">
-        <v>-1.278643328866164</v>
+        <v>-0.7139653791537964</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.5186891648309039</v>
+        <v>0.2902432299601113</v>
       </c>
       <c r="B211" t="n">
-        <v>1.812144146655765</v>
+        <v>1.011618232908458</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-1.434364626791603</v>
+        <v>-0.8046572288982541</v>
       </c>
       <c r="B212" t="n">
-        <v>0.9544501849668072</v>
+        <v>0.5327685364551972</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.5517334692414999</v>
+        <v>-0.3098458399085721</v>
       </c>
       <c r="B213" t="n">
-        <v>0.573600899422008</v>
+        <v>0.3201407543749208</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-0.6551178586685275</v>
+        <v>-0.3678041080873542</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.3319938083012033</v>
+        <v>-0.1854518815450229</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-0.7137385160942187</v>
+        <v>-0.4006674040136007</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5875190653219199</v>
+        <v>0.3279112527275441</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -2806,10 +2806,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-0.5947020960198177</v>
+        <v>-0.3339344591662168</v>
       </c>
       <c r="B216" t="n">
-        <v>1.635796659606105</v>
+        <v>0.9131636040828809</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1.520410580309326</v>
+        <v>0.8518177458081453</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.9064316209850828</v>
+        <v>-0.5061599482000436</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1.818194706979469</v>
+        <v>1.018758348432825</v>
       </c>
       <c r="B218" t="n">
-        <v>0.2095336122492937</v>
+        <v>0.1168823455038574</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.02314713445562033</v>
+        <v>-0.01351533278898929</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.8203101137358616</v>
+        <v>-0.4580783952843867</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1.540746460509355</v>
+        <v>0.8632182329108602</v>
       </c>
       <c r="B220" t="n">
-        <v>0.9660846532171696</v>
+        <v>0.5392640486529401</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-0.5463936917964212</v>
+        <v>-0.3068523100836914</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.6440158705404027</v>
+        <v>-0.3596534924503183</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1.699857799937217</v>
+        <v>0.9524175572184659</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.1929102319006368</v>
+        <v>-0.1078016574372336</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.1138179748923673</v>
+        <v>-0.06434626495537596</v>
       </c>
       <c r="B223" t="n">
-        <v>1.697900716000224</v>
+        <v>0.9478362377741327</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.8934203357944271</v>
+        <v>0.5003210746136587</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.03600785491847996</v>
+        <v>-0.02020321446492809</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1.831310622286596</v>
+        <v>1.026111254814472</v>
       </c>
       <c r="B225" t="n">
-        <v>0.09327705173328027</v>
+        <v>0.05197642194556408</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.3990493628618991</v>
+        <v>0.2231720235061591</v>
       </c>
       <c r="B226" t="n">
-        <v>-1.90529531151252</v>
+        <v>-1.06382456561833</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-0.7129388102192548</v>
+        <v>-0.4002190813236648</v>
       </c>
       <c r="B227" t="n">
-        <v>0.02630658714108044</v>
+        <v>0.01458687733671619</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.4045758742365086</v>
+        <v>0.2262702381410562</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.8021727221858176</v>
+        <v>-0.4479523073950771</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.8894749383126491</v>
+        <v>0.4981092474065908</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.3132917058323534</v>
+        <v>-0.1750105161043574</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-1.858178208168345</v>
+        <v>-1.042251137837293</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.09490990840896266</v>
+        <v>-0.05308817307982852</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-0.7085531416781502</v>
+        <v>-0.3977604339896009</v>
       </c>
       <c r="B231" t="n">
-        <v>-1.468690326155832</v>
+        <v>-0.8200684310918186</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.282263208096653</v>
+        <v>0.7183100727322531</v>
       </c>
       <c r="B232" t="n">
-        <v>-1.315247160262711</v>
+        <v>-0.7344012622731639</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.3143577764928664</v>
+        <v>0.1756931178177182</v>
       </c>
       <c r="B233" t="n">
-        <v>-1.610108319318305</v>
+        <v>-0.8990219577851049</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1.174470668595998</v>
+        <v>0.6578805538592845</v>
       </c>
       <c r="B234" t="n">
-        <v>-1.138743582463166</v>
+        <v>-0.6358594881352257</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-0.316856359210681</v>
+        <v>-0.1781715067943632</v>
       </c>
       <c r="B235" t="n">
-        <v>1.729573792681974</v>
+        <v>0.965519285378818</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-1.889875304691085</v>
+        <v>-1.060020830446934</v>
       </c>
       <c r="B236" t="n">
-        <v>0.2394755662588017</v>
+        <v>0.1335989090207986</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-0.9130088885400408</v>
+        <v>-0.5123802626986415</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.2923443991513285</v>
+        <v>-0.1633156553570927</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.3182831623031524</v>
+        <v>0.1778937262921565</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.669895057891469</v>
+        <v>-0.3741018173319725</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1.100095824063457</v>
+        <v>0.6161853113854209</v>
       </c>
       <c r="B239" t="n">
-        <v>-1.600920753463495</v>
+        <v>-0.8938925487916489</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.866346022430744</v>
+        <v>0.4851429580393346</v>
       </c>
       <c r="B240" t="n">
-        <v>0.4446942782739102</v>
+        <v>0.248172314389602</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.337931501958848</v>
+        <v>0.1889087716519437</v>
       </c>
       <c r="B241" t="n">
-        <v>0.8300630640460219</v>
+        <v>0.463323329008099</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.2171324287221817</v>
+        <v>0.1211876667423788</v>
       </c>
       <c r="B242" t="n">
-        <v>-1.83086540099283</v>
+        <v>-1.02227041967423</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-0.8181824714970323</v>
+        <v>-0.45921967491676</v>
       </c>
       <c r="B243" t="n">
-        <v>1.405881482927143</v>
+        <v>0.7848021867471198</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.2310692983686739</v>
+        <v>0.1290008079044134</v>
       </c>
       <c r="B244" t="n">
-        <v>1.881067459884921</v>
+        <v>1.050098050993389</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-0.5550793679969764</v>
+        <v>-0.3117215824500109</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.5076847996198846</v>
+        <v>-0.2835399894487516</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.9666907237563391</v>
+        <v>0.5413971482703814</v>
       </c>
       <c r="B246" t="n">
-        <v>1.481110409738824</v>
+        <v>0.82680242270231</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-0.8871694586593286</v>
+        <v>-0.4978944335041846</v>
       </c>
       <c r="B247" t="n">
-        <v>1.499121636603036</v>
+        <v>0.8368580729714283</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.471504361023776</v>
+        <v>0.2637909819159612</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.5260190685492163</v>
+        <v>-0.2937759937855605</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.6892336002360607</v>
+        <v>0.3858520561899927</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.630071207475852</v>
+        <v>-0.3518682007567006</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.777218661000881</v>
+        <v>0.4351773148271613</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.4615840889557107</v>
+        <v>-0.2578020079613352</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.3203130714760918</v>
+        <v>0.1790317126059107</v>
       </c>
       <c r="B251" t="n">
-        <v>1.781341353714676</v>
+        <v>0.9944210638614619</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>-0.7776158679243907</v>
+        <v>-0.4364776526250382</v>
       </c>
       <c r="B252" t="n">
-        <v>0.4820166206489199</v>
+        <v>0.2690093414825819</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1.391667231470478</v>
+        <v>0.7796430047317544</v>
       </c>
       <c r="B253" t="n">
-        <v>1.194154015880531</v>
+        <v>0.6665949498366009</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1.086128291425482</v>
+        <v>0.6083549802598587</v>
       </c>
       <c r="B254" t="n">
-        <v>1.40427561269341</v>
+        <v>0.7839056309727823</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-1.356804811754724</v>
+        <v>-0.7611764617851782</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.127471124642285</v>
+        <v>-0.6295660860047251</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.7927515642414892</v>
+        <v>0.4438852075429148</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.5719287907367377</v>
+        <v>-0.3194073465940354</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>-0.7212684571126745</v>
+        <v>-0.4048887602873747</v>
       </c>
       <c r="B257" t="n">
-        <v>0.6046461735730927</v>
+        <v>0.3374733004433125</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>-0.06928404756096608</v>
+        <v>-0.0393801233779806</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.978164805220211</v>
+        <v>-0.5462085145079799</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>-0.8303530160282095</v>
+        <v>-0.4660425974849457</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.2619536395989843</v>
+        <v>-0.1463485241463665</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-0.913156370601872</v>
+        <v>-0.5124629425397524</v>
       </c>
       <c r="B260" t="n">
-        <v>0.2376449822730077</v>
+        <v>0.1325768957793814</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -3301,10 +3301,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.6150836276041912</v>
+        <v>0.344282879034087</v>
       </c>
       <c r="B261" t="n">
-        <v>0.3989636820284986</v>
+        <v>0.2226409674186841</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -3312,10 +3312,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1.734481343189026</v>
+        <v>0.971827843589644</v>
       </c>
       <c r="B262" t="n">
-        <v>0.2949807762381027</v>
+        <v>0.1645874132395114</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>-0.6911725931847806</v>
+        <v>-0.3880167338405173</v>
       </c>
       <c r="B263" t="n">
-        <v>0.1856812442168178</v>
+        <v>0.103565591857194</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.4952828721052041</v>
+        <v>0.2771214405063493</v>
       </c>
       <c r="B264" t="n">
-        <v>1.728024211184839</v>
+        <v>0.9646541555508414</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-1.121264874890982</v>
+        <v>-0.6291305416687967</v>
       </c>
       <c r="B265" t="n">
-        <v>1.506920067556748</v>
+        <v>0.8412119293138971</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-0.6073288278965669</v>
+        <v>-0.3410131246822594</v>
       </c>
       <c r="B266" t="n">
-        <v>0.6348391138363553</v>
+        <v>0.3543299893392264</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>-0.8129838387996484</v>
+        <v>-0.4563052721746456</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3473687943228468</v>
+        <v>0.1938355922849471</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-0.03744025384389658</v>
+        <v>-0.02152819093138594</v>
       </c>
       <c r="B268" t="n">
-        <v>0.8770097675293465</v>
+        <v>0.4895336274555815</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3389,10 +3389,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-0.2320178943569885</v>
+        <v>-0.1306102596358921</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.8171652937944246</v>
+        <v>-0.4563226453996704</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-0.365832458633809</v>
+        <v>-0.2056279721316172</v>
       </c>
       <c r="B270" t="n">
-        <v>1.848077435133438</v>
+        <v>1.031679752574772</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.288368277495317</v>
+        <v>0.1611231584546042</v>
       </c>
       <c r="B271" t="n">
-        <v>0.8490554215426759</v>
+        <v>0.4739267435457224</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.4016002415904208</v>
+        <v>0.2246020702884498</v>
       </c>
       <c r="B272" t="n">
-        <v>1.676115937295461</v>
+        <v>0.9356738172185131</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1.472091588459792</v>
+        <v>0.8247296612020997</v>
       </c>
       <c r="B273" t="n">
-        <v>-1.053600656543896</v>
+        <v>-0.5883242762149977</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>-0.799192618549013</v>
+        <v>-0.4485737834438138</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.303871468705101</v>
+        <v>-0.1697512069680079</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-0.4920459883940513</v>
+        <v>-0.2763844726649796</v>
       </c>
       <c r="B275" t="n">
-        <v>-1.700526844942211</v>
+        <v>-0.9495025318391638</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>-0.9921489453299023</v>
+        <v>-0.5567469283096851</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.140011634913689</v>
+        <v>-0.07826842269214694</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1.234404385541863</v>
+        <v>0.6914799633924948</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.41823202819619</v>
+        <v>-0.7918976128970119</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1.459138328578927</v>
+        <v>0.8174679409934161</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.080941266564151</v>
+        <v>-0.6035885119375687</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>-0.4686950584480449</v>
+        <v>-0.2632937201100221</v>
       </c>
       <c r="B279" t="n">
-        <v>0.6579341794380282</v>
+        <v>0.3672239417825338</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3510,10 +3510,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>-1.055612608516548</v>
+        <v>-0.5923252591482662</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.02640350799657706</v>
+        <v>-0.01484111701104297</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.4176247135793233</v>
+        <v>0.2335855411016304</v>
       </c>
       <c r="B281" t="n">
-        <v>0.7252866041979003</v>
+        <v>0.4048267343778627</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-1.6660624097551</v>
+        <v>-0.9345492011375078</v>
       </c>
       <c r="B282" t="n">
-        <v>0.5566684214414575</v>
+        <v>0.3106873685480908</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1.527212973826454</v>
+        <v>0.855631232059874</v>
       </c>
       <c r="B283" t="n">
-        <v>0.9154634358713956</v>
+        <v>0.5110022727248626</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-0.6891575900012887</v>
+        <v>-0.3868871039656671</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.6734208603743145</v>
+        <v>-0.376070269395387</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.6489047123658355</v>
+        <v>0.3632432995731694</v>
       </c>
       <c r="B285" t="n">
-        <v>1.805325468150506</v>
+        <v>1.007811371395727</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-0.05914614955591035</v>
+        <v>-0.03369672170967657</v>
       </c>
       <c r="B286" t="n">
-        <v>0.7813599935668571</v>
+        <v>0.4361324525918005</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.7641599402484478</v>
+        <v>0.4278564722547382</v>
       </c>
       <c r="B287" t="n">
-        <v>0.7362959128975786</v>
+        <v>0.4109732206124399</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-1.516549604158123</v>
+        <v>-0.8507309058322172</v>
       </c>
       <c r="B288" t="n">
-        <v>-1.13811596258867</v>
+        <v>-0.6355090885756924</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-1.678469078321954</v>
+        <v>-0.9415044970771385</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.01764257424959383</v>
+        <v>-0.009949896304383227</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.6280557526390734</v>
+        <v>0.3515551752268413</v>
       </c>
       <c r="B290" t="n">
-        <v>0.3534129722555729</v>
+        <v>0.197210050888685</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1.592688843024183</v>
+        <v>0.8923376246519531</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.9018685253284604</v>
+        <v>-0.503612376376455</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1.136277275570835</v>
+        <v>0.6364689758843284</v>
       </c>
       <c r="B292" t="n">
-        <v>1.472998704278416</v>
+        <v>0.8222736655104255</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-0.5834373463451875</v>
+        <v>-0.3276193337761317</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.4759559407163303</v>
+        <v>-0.2658257986844179</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -3664,10 +3664,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-0.6145181897468135</v>
+        <v>-0.3450435490476805</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.5893381874690906</v>
+        <v>-0.3291269956916057</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-0.0775498415418631</v>
+        <v>-0.04401400579398634</v>
       </c>
       <c r="B295" t="n">
-        <v>-1.781880213055165</v>
+        <v>-0.9949220373579231</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-1.627093672664827</v>
+        <v>-0.9127029579340243</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.6501392836885118</v>
+        <v>-0.3630721879969861</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-1.10649399424052</v>
+        <v>-0.6208498460364981</v>
       </c>
       <c r="B297" t="n">
-        <v>1.442465852821252</v>
+        <v>0.8052272045287895</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.06985185195427503</v>
+        <v>0.03862078006685078</v>
       </c>
       <c r="B298" t="n">
-        <v>0.6703244476915503</v>
+        <v>0.3741414163797552</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>-1.537257274804894</v>
+        <v>-0.8623398221817267</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.9896901259982138</v>
+        <v>-0.5526430897791005</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-0.842410693497168</v>
+        <v>-0.4728022457087467</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.1735117927840334</v>
+        <v>-0.0969715279300129</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-0.1829838590297432</v>
+        <v>-0.1031213148819039</v>
       </c>
       <c r="B301" t="n">
-        <v>-1.68295371290424</v>
+        <v>-0.9396914694812745</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.6241806990068299</v>
+        <v>0.3493827834482619</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.7098109131052986</v>
+        <v>-0.396386800095727</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-0.5303317967348318</v>
+        <v>-0.2978478595414155</v>
       </c>
       <c r="B303" t="n">
-        <v>-1.863747946467045</v>
+        <v>-1.040628712517905</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>1.140832480146159</v>
+        <v>0.6390226667253632</v>
       </c>
       <c r="B304" t="n">
-        <v>1.248679064440873</v>
+        <v>0.6970362308977445</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>-0.08560262087929418</v>
+        <v>-0.04852847018275962</v>
       </c>
       <c r="B305" t="n">
-        <v>0.8463950708905601</v>
+        <v>0.4724414723894276</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1.906942283138724</v>
+        <v>1.068511080424202</v>
       </c>
       <c r="B306" t="n">
-        <v>0.2687345549379964</v>
+        <v>0.1499341736645792</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>-0.715821091046425</v>
+        <v>-0.4018349152621687</v>
       </c>
       <c r="B307" t="n">
-        <v>0.08137096674320762</v>
+        <v>0.04532926638880086</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-1.236807544956611</v>
+        <v>-0.693904857161398</v>
       </c>
       <c r="B308" t="n">
-        <v>-1.478224520594597</v>
+        <v>-0.8253913624832657</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -3829,10 +3829,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>-0.4295662333976249</v>
+        <v>-0.2413577300794032</v>
       </c>
       <c r="B309" t="n">
-        <v>0.6273488088310054</v>
+        <v>0.3501481594111118</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.4913646528439651</v>
+        <v>0.274924849667203</v>
       </c>
       <c r="B310" t="n">
-        <v>0.6658609643731737</v>
+        <v>0.3716494580267781</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.8915730692593042</v>
+        <v>0.4992854794930247</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.3014016464068844</v>
+        <v>-0.1683723076045734</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>1.399645298237991</v>
+        <v>0.7841155845460032</v>
       </c>
       <c r="B312" t="n">
-        <v>1.027799573902611</v>
+        <v>0.5737194282602155</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>-0.6203968065526485</v>
+        <v>-0.3483391573231773</v>
       </c>
       <c r="B313" t="n">
-        <v>0.7055497877488579</v>
+        <v>0.3938076891382681</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -3884,10 +3884,10 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.411225072924935</v>
+        <v>0.2299978419204433</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.6835561324177714</v>
+        <v>-0.381728781823204</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.223081942938972</v>
+        <v>0.1245230207781406</v>
       </c>
       <c r="B315" t="n">
-        <v>0.8316156284350978</v>
+        <v>0.4641901241817166</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-1.126424057849704</v>
+        <v>-0.6320228285136694</v>
       </c>
       <c r="B316" t="n">
-        <v>1.346326563145241</v>
+        <v>0.7515527335229125</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>-0.7424050586505861</v>
+        <v>-0.4167381393581581</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.3905555240931315</v>
+        <v>-0.2181468299570725</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.8185519354072598</v>
+        <v>0.4583491400517325</v>
       </c>
       <c r="B318" t="n">
-        <v>0.3414454376524842</v>
+        <v>0.1905285880733258</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.9454105356942265</v>
+        <v>0.5294672732337891</v>
       </c>
       <c r="B319" t="n">
-        <v>0.3451535358750648</v>
+        <v>0.1925988156691982</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>-0.8767740388315627</v>
+        <v>-0.4920666626623018</v>
       </c>
       <c r="B320" t="n">
-        <v>-1.525076799708969</v>
+        <v>-0.8515489438982979</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>1.6687923493188</v>
+        <v>0.9350019712870159</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.8905434430346052</v>
+        <v>-0.497289594054376</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -3972,10 +3972,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.8343640767621826</v>
+        <v>0.4672135762998789</v>
       </c>
       <c r="B322" t="n">
-        <v>1.528374233725321</v>
+        <v>0.8531897692152632</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.7751941533190944</v>
+        <v>0.4340423566405213</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.1976156087527816</v>
+        <v>-0.1104286647125452</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>-1.385596484761986</v>
+        <v>-0.7773173464459955</v>
       </c>
       <c r="B324" t="n">
-        <v>0.9964469643925649</v>
+        <v>0.5562152971627554</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>-0.7003498656485039</v>
+        <v>-0.3931615997293627</v>
       </c>
       <c r="B325" t="n">
-        <v>1.639628232434483</v>
+        <v>0.9153027674299031</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>-0.215809748326509</v>
+        <v>-0.1215238194148715</v>
       </c>
       <c r="B326" t="n">
-        <v>1.651053887094113</v>
+        <v>0.9216816992050204</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-0.167222412853526</v>
+        <v>-0.09428529883122713</v>
       </c>
       <c r="B327" t="n">
-        <v>1.73425032796304</v>
+        <v>0.9681301904333223</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.832802735021817</v>
+        <v>0.4663382733280438</v>
       </c>
       <c r="B328" t="n">
-        <v>-1.484858357538746</v>
+        <v>-0.8290950271339655</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1.746687197024751</v>
+        <v>0.9786705608884806</v>
       </c>
       <c r="B329" t="n">
-        <v>0.09921093994583022</v>
+        <v>0.05528930590684533</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>-0.2530060557114697</v>
+        <v>-0.1423764217335187</v>
       </c>
       <c r="B330" t="n">
-        <v>0.8456493163548414</v>
+        <v>0.4720251183645557</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -4071,10 +4071,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1.01457779101313</v>
+        <v>0.5682430918576719</v>
       </c>
       <c r="B331" t="n">
-        <v>0.2954181832070846</v>
+        <v>0.1648316171207082</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.4992581995989593</v>
+        <v>0.2793500467616892</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.7569077286872918</v>
+        <v>-0.4226809059804683</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>-0.1803964488085224</v>
+        <v>-0.1016707881987059</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.9289620620552594</v>
+        <v>-0.518738671321945</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4104,10 +4104,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>-0.6207683684105483</v>
+        <v>-0.3485474584209011</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.5029286009012219</v>
+        <v>-0.2808846083752762</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.7382209033230956</v>
+        <v>0.4133148024073768</v>
       </c>
       <c r="B335" t="n">
-        <v>-1.665539733689019</v>
+        <v>-0.9299692619880197</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.880060800383643</v>
+        <v>0.4928315924938393</v>
       </c>
       <c r="B336" t="n">
-        <v>0.01500882304481381</v>
+        <v>0.008279346737521259</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1.609829476352957</v>
+        <v>0.9019468260868022</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.7223162709859673</v>
+        <v>-0.4033685291187525</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-1.724905480673937</v>
+        <v>-0.9675371841751622</v>
       </c>
       <c r="B338" t="n">
-        <v>0.399280554840504</v>
+        <v>0.2228178771984198</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1.574953231316952</v>
+        <v>0.8823948727013018</v>
       </c>
       <c r="B339" t="n">
-        <v>-1.021630671403341</v>
+        <v>-0.5704754649093609</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-0.2196400051952475</v>
+        <v>-0.1236710977034246</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.8879199635413164</v>
+        <v>-0.4958249080298424</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-0.8801014158457522</v>
+        <v>-0.4939320217400996</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.5391731722678336</v>
+        <v>-0.301119916972767</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.8304539361049884</v>
+        <v>0.4650215144026968</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.3728865424658078</v>
+        <v>-0.2082822548675833</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.9171543354308352</v>
+        <v>0.5136265796662661</v>
       </c>
       <c r="B343" t="n">
-        <v>0.1877113350903631</v>
+        <v>0.1046989895981032</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.7788029699552579</v>
+        <v>0.4360654934367631</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.4903204938262501</v>
+        <v>-0.2738455145779831</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>-1.484278225121144</v>
+        <v>-0.8326392650043288</v>
       </c>
       <c r="B345" t="n">
-        <v>1.154698640134022</v>
+        <v>0.6445670523072058</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>-0.1977284473985843</v>
+        <v>-0.1113872708120323</v>
       </c>
       <c r="B346" t="n">
-        <v>1.899310850562404</v>
+        <v>1.060283318091444</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-0.2991991849478596</v>
+        <v>-0.1682727276181663</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8792909415722772</v>
+        <v>0.4908072046833649</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1.041605505079137</v>
+        <v>0.583395084424236</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.476742806011985</v>
+        <v>-0.8245641226870136</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1.784752739533071</v>
+        <v>1.000010464652436</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.5533348659578651</v>
+        <v>-0.3090263766514407</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.224881953668986</v>
+        <v>0.1255321238467279</v>
       </c>
       <c r="B350" t="n">
-        <v>0.8892859994554664</v>
+        <v>0.4963874356832115</v>
       </c>
       <c r="C350" t="n">
         <v>1</v>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.3442614795558311</v>
+        <v>0.1924574170631601</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.7377642961350447</v>
+        <v>-0.4119931463876808</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>-1.744741563721516</v>
+        <v>-0.9786574802591244</v>
       </c>
       <c r="B352" t="n">
-        <v>0.2263739061259172</v>
+        <v>0.1262842650360008</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.04821971901583305</v>
+        <v>0.02649360139825463</v>
       </c>
       <c r="B353" t="n">
-        <v>1.977068820861938</v>
+        <v>1.10369551654208</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.5309516709107839</v>
+        <v>0.2971177070437457</v>
       </c>
       <c r="B354" t="n">
-        <v>0.6620252336891379</v>
+        <v>0.3695079733530254</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.5583110327935851</v>
+        <v>0.3124556245184432</v>
       </c>
       <c r="B355" t="n">
-        <v>0.8417013849385481</v>
+        <v>0.4698209921321782</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>-1.433366468048777</v>
+        <v>-0.8040976516504483</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.7656197388223854</v>
+        <v>-0.4275448126826588</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -4357,10 +4357,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>-1.75001308462702</v>
+        <v>-0.9816127448212553</v>
       </c>
       <c r="B357" t="n">
-        <v>0.002761296976271165</v>
+        <v>0.001441564961984071</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -4368,10 +4368,10 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1.74187697434983</v>
+        <v>0.9759739044847642</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.1517616891944815</v>
+        <v>-0.08482846645715983</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.3083492466599405</v>
+        <v>0.1723246790684356</v>
       </c>
       <c r="B359" t="n">
-        <v>0.7495618436766023</v>
+        <v>0.4183795767376439</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>-1.24584156998352</v>
+        <v>-0.6989694171800361</v>
       </c>
       <c r="B360" t="n">
-        <v>1.312363715186218</v>
+        <v>0.7325913088629536</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -4401,10 +4401,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>-0.1089987550911809</v>
+        <v>-0.06164456467743597</v>
       </c>
       <c r="B361" t="n">
-        <v>0.9339399736430564</v>
+        <v>0.5213177056166187</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>-0.9658885832075185</v>
+        <v>-0.5420251205126255</v>
       </c>
       <c r="B362" t="n">
-        <v>1.634727543359639</v>
+        <v>0.9125667175324788</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>-0.1911766548771727</v>
+        <v>-0.1077142738527018</v>
       </c>
       <c r="B363" t="n">
-        <v>0.8667902507947197</v>
+        <v>0.4838280812994226</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-1.127207951293739</v>
+        <v>-0.6324622866050197</v>
       </c>
       <c r="B364" t="n">
-        <v>1.29600719690577</v>
+        <v>0.72345948077103</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>-0.566341050205824</v>
+        <v>-0.318034988189717</v>
       </c>
       <c r="B365" t="n">
-        <v>1.72608112385384</v>
+        <v>0.9635693318022878</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>-0.4827777226382582</v>
+        <v>-0.2711885950745275</v>
       </c>
       <c r="B366" t="n">
-        <v>0.6704318991035964</v>
+        <v>0.3742014063975703</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>-0.8707061125496406</v>
+        <v>-0.4886649257009884</v>
       </c>
       <c r="B367" t="n">
-        <v>1.588095131911338</v>
+        <v>0.8865318880194776</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1.695169974610381</v>
+        <v>0.9497895179276813</v>
       </c>
       <c r="B368" t="n">
-        <v>0.4240397940510146</v>
+        <v>0.2366409361331243</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>-0.9271031733706752</v>
+        <v>-0.520281652304261</v>
       </c>
       <c r="B369" t="n">
-        <v>0.2891293800278658</v>
+        <v>0.1613205844821045</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.2723131288636397</v>
+        <v>0.1521224900248529</v>
       </c>
       <c r="B370" t="n">
-        <v>-1.872918753521509</v>
+        <v>-1.045748765089587</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.1087483012609228</v>
+        <v>0.06042649805397794</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.8249779582713068</v>
+        <v>-0.4606844483041461</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>-0.3564316820996776</v>
+        <v>-0.2003578077434185</v>
       </c>
       <c r="B372" t="n">
-        <v>0.8553733955695073</v>
+        <v>0.4774540622398989</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -4533,10 +4533,10 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.775858191491147</v>
+        <v>0.4344146227308862</v>
       </c>
       <c r="B373" t="n">
-        <v>0.09527838777984535</v>
+        <v>0.05309376589481087</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -4544,10 +4544,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.8671712227592105</v>
+        <v>0.4856055731614392</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.5032394481383835</v>
+        <v>-0.2810581540824945</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -4555,10 +4555,10 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>-1.663991733761347</v>
+        <v>-0.9333883605577799</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.8173343776887632</v>
+        <v>-0.4564170447718191</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>-1.736112527828957</v>
+        <v>-0.9738199609860787</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.3959222915123377</v>
+        <v>-0.2211430909364101</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.8959094414391104</v>
+        <v>0.50171649081991</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.0610921007316859</v>
+        <v>-0.03420772426672223</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1.65170983855117</v>
+        <v>0.9254253539105977</v>
       </c>
       <c r="B378" t="n">
-        <v>-1.056906998555061</v>
+        <v>-0.590170203712609</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -4599,10 +4599,10 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>-0.919529191830563</v>
+        <v>-0.5160356064968058</v>
       </c>
       <c r="B379" t="n">
-        <v>1.573216881312586</v>
+        <v>0.8782253753224095</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.2380460038046072</v>
+        <v>0.1329120150692591</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.8742501614305549</v>
+        <v>-0.4881930709367789</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1.371660310018974</v>
+        <v>0.7684269350200257</v>
       </c>
       <c r="B381" t="n">
-        <v>1.165492807167548</v>
+        <v>0.6505934251608652</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>-0.3504354434998956</v>
+        <v>-0.1969962595758836</v>
       </c>
       <c r="B382" t="n">
-        <v>0.9355302549935075</v>
+        <v>0.5222055581327298</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.01870796511019952</v>
+        <v>0.009949032563747691</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.9271618911501189</v>
+        <v>-0.5177336376735874</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>-0.5894677616341026</v>
+        <v>-0.3310000417193854</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.7732983024812908</v>
+        <v>-0.4318317472321611</v>
       </c>
       <c r="C384" t="n">
         <v>1</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>-1.75903311665265</v>
+        <v>-0.9866694602308064</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.4907954105904712</v>
+        <v>-0.2741106601410228</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>-0.7473458382827475</v>
+        <v>-0.4195079872290033</v>
       </c>
       <c r="B386" t="n">
-        <v>0.05739968396613629</v>
+        <v>0.03194612275701834</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.7802119788416072</v>
+        <v>0.4368553971674317</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.2246092502569317</v>
+        <v>-0.1254991882533393</v>
       </c>
       <c r="C387" t="n">
         <v>1</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-0.9501195992123542</v>
+        <v>-0.5331848786892336</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.2451016975842131</v>
+        <v>-0.1369401014701351</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>-0.7070391338874907</v>
+        <v>-0.3969116668784139</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.4146419787485204</v>
+        <v>-0.2315942739354073</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>-0.4577589981892594</v>
+        <v>-0.2571628611204702</v>
       </c>
       <c r="B390" t="n">
-        <v>-1.487299188859854</v>
+        <v>-0.8304577408633529</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>-0.4978880552565727</v>
+        <v>-0.2796595906959797</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.6802733171625979</v>
+        <v>-0.3798959892903564</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -4742,10 +4742,10 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.7309313621662495</v>
+        <v>0.4092282165735746</v>
       </c>
       <c r="B392" t="n">
-        <v>0.6859206902060779</v>
+        <v>0.3828487832582471</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.2397280518405399</v>
+        <v>0.1338549871339632</v>
       </c>
       <c r="B393" t="n">
-        <v>1.0777054330208</v>
+        <v>0.6015818203923988</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1.262641680395369</v>
+        <v>0.707310058408126</v>
       </c>
       <c r="B394" t="n">
-        <v>1.006962737799177</v>
+        <v>0.5620862431279239</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>-0.5083604548006843</v>
+        <v>-0.2855305170961533</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.6827556527989381</v>
+        <v>-0.3812818748381757</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>-0.7614765021821686</v>
+        <v>-0.4274297712852407</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.3495434142422903</v>
+        <v>-0.1952498093061273</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1.855963269606606</v>
+        <v>1.039931762461795</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.3332511948434851</v>
+        <v>-0.1861538792166754</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -4808,10 +4808,10 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>-0.5207477199201161</v>
+        <v>-0.2924749352793304</v>
       </c>
       <c r="B398" t="n">
-        <v>0.9254692062611821</v>
+        <v>0.5165884845066214</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>-1.557376620034107</v>
+        <v>-0.873618917728345</v>
       </c>
       <c r="B399" t="n">
-        <v>0.7392998642229013</v>
+        <v>0.4126503236871294</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>-0.04245648110862409</v>
+        <v>-0.02434033545984016</v>
       </c>
       <c r="B400" t="n">
-        <v>0.7905212714974086</v>
+        <v>0.4412471850629606</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -4841,10 +4841,10 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.9020391081775071</v>
+        <v>0.5051528400660533</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.4678924806490075</v>
+        <v>-0.2613239768481104</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>-0.05364070781866907</v>
+        <v>-0.0306103189131024</v>
       </c>
       <c r="B402" t="n">
-        <v>0.8774657769368897</v>
+        <v>0.4897882170599572</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -4863,10 +4863,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.5939129705619148</v>
+        <v>0.3324144081249142</v>
       </c>
       <c r="B403" t="n">
-        <v>1.508975068989784</v>
+        <v>0.8423592345957048</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1.777190431084068</v>
+        <v>0.9957709628904472</v>
       </c>
       <c r="B404" t="n">
-        <v>0.2727231479930396</v>
+        <v>0.1521610012499361</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.3198042374150393</v>
+        <v>0.1787464554105796</v>
       </c>
       <c r="B405" t="n">
-        <v>1.746897356664609</v>
+        <v>0.9751910141365191</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.9855119659660613</v>
+        <v>0.5519485149660164</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.06705102971703988</v>
+        <v>-0.03753458846686694</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>-1.53658943504643</v>
+        <v>-0.8619654248860034</v>
       </c>
       <c r="B407" t="n">
-        <v>0.8458900277028539</v>
+        <v>0.4721595072737439</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>-0.718429033281342</v>
+        <v>-0.4032969523867656</v>
       </c>
       <c r="B408" t="n">
-        <v>1.661193291036036</v>
+        <v>0.9273425184676931</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-1.906186990872474</v>
+        <v>-1.069165316257496</v>
       </c>
       <c r="B409" t="n">
-        <v>0.03210933283487225</v>
+        <v>0.01782654455857235</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.9028917449502569</v>
+        <v>0.5056308363187566</v>
       </c>
       <c r="B410" t="n">
-        <v>0.4153621449818412</v>
+        <v>0.2317962131802904</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>-0.8378855009047812</v>
+        <v>-0.4702653798696801</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.1915500313618475</v>
+        <v>-0.1070422588123065</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -4962,10 +4962,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>-0.8169823285729393</v>
+        <v>-0.4585468634233328</v>
       </c>
       <c r="B412" t="n">
-        <v>0.4475495963366943</v>
+        <v>0.2497664356597918</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -4973,10 +4973,10 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.9579970539866922</v>
+        <v>0.5365233946334977</v>
       </c>
       <c r="B413" t="n">
-        <v>0.1914463675804899</v>
+        <v>0.1067842545690939</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>1.676733273815562</v>
+        <v>0.9394537287923947</v>
       </c>
       <c r="B414" t="n">
-        <v>0.6024205680570224</v>
+        <v>0.3362307470695002</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.7123063267805336</v>
+        <v>0.3987868452823454</v>
       </c>
       <c r="B415" t="n">
-        <v>0.2642958286368388</v>
+        <v>0.1474560371300012</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.4538241404291369</v>
+        <v>0.253879282747806</v>
       </c>
       <c r="B416" t="n">
-        <v>0.5524810492626597</v>
+        <v>0.3083495627731664</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1.098857318127793</v>
+        <v>0.6154909932242549</v>
       </c>
       <c r="B417" t="n">
-        <v>1.59461836531469</v>
+        <v>0.8901738028219764</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1.61099296930156</v>
+        <v>0.9025990912567473</v>
       </c>
       <c r="B418" t="n">
-        <v>0.711997477453319</v>
+        <v>0.3974074279678691</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>-0.2684286767636336</v>
+        <v>-0.1510224892096146</v>
       </c>
       <c r="B419" t="n">
-        <v>-1.773799678827101</v>
+        <v>-0.9904106830344429</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>-0.7930936818316923</v>
+        <v>-0.4451546617386226</v>
       </c>
       <c r="B420" t="n">
-        <v>-1.697071931778627</v>
+        <v>-0.9475736572130716</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.6743498000383973</v>
+        <v>0.3775080567897305</v>
       </c>
       <c r="B421" t="n">
-        <v>-1.528894849828389</v>
+        <v>-0.85368055753019</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -5072,10 +5072,10 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.7956076493746749</v>
+        <v>0.4454863559271924</v>
       </c>
       <c r="B422" t="n">
-        <v>0.5663643048965327</v>
+        <v>0.3161005707585461</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.4002451887672115</v>
+        <v>0.2238424148379583</v>
       </c>
       <c r="B423" t="n">
-        <v>0.8720142278992431</v>
+        <v>0.4867446225863099</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1.166843686785778</v>
+        <v>0.6536047955982803</v>
       </c>
       <c r="B424" t="n">
-        <v>1.212219228650132</v>
+        <v>0.676680740383677</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.2335129083899602</v>
+        <v>0.1303707188331618</v>
       </c>
       <c r="B425" t="n">
-        <v>-1.64538586814867</v>
+        <v>-0.9187173786503404</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.9114498962009098</v>
+        <v>0.5104286169899865</v>
       </c>
       <c r="B426" t="n">
-        <v>1.500429404919496</v>
+        <v>0.8375881987381236</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.4801995317409342</v>
+        <v>0.2686655769982397</v>
       </c>
       <c r="B427" t="n">
-        <v>1.827393815221997</v>
+        <v>1.020132107891993</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.5895904750994923</v>
+        <v>0.3299911762172625</v>
       </c>
       <c r="B428" t="n">
-        <v>1.64664092337011</v>
+        <v>0.9192179458919659</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>-0.5668782746028114</v>
+        <v>-0.318336161276344</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.7590549800875596</v>
+        <v>-0.4238797143283809</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>1.566995567699753</v>
+        <v>0.8779337310864189</v>
       </c>
       <c r="B430" t="n">
-        <v>0.860921921850899</v>
+        <v>0.4805517990134859</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -5171,10 +5171,10 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.2848297483266501</v>
+        <v>0.159139425478546</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.8045029025993901</v>
+        <v>-0.4492532448314598</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>0.7190908116641268</v>
+        <v>0.4025902917844476</v>
       </c>
       <c r="B432" t="n">
-        <v>-1.477668298590324</v>
+        <v>-0.8250808242845566</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>-0.6332992941473582</v>
+        <v>-0.3555724141072241</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.5930513662790787</v>
+        <v>-0.3312000597744378</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1.178625537067982</v>
+        <v>0.6602098124879938</v>
       </c>
       <c r="B434" t="n">
-        <v>-1.164128915126875</v>
+        <v>-0.6500320944299528</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>-1.67061703899464</v>
+        <v>-0.9371025694398518</v>
       </c>
       <c r="B435" t="n">
-        <v>1.021555519568159</v>
+        <v>0.5702333788576963</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-0.3159178334562998</v>
+        <v>-0.1776453603648433</v>
       </c>
       <c r="B436" t="n">
-        <v>0.9096204208811349</v>
+        <v>0.5077401231943369</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -5237,10 +5237,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>-1.768632572272126</v>
+        <v>-0.9920510059965393</v>
       </c>
       <c r="B437" t="n">
-        <v>0.1834394880091031</v>
+        <v>0.1023140215680987</v>
       </c>
       <c r="C437" t="n">
         <v>0</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1.810819659314695</v>
+        <v>1.014623826840588</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.3946028578445404</v>
+        <v>-0.22040645241552</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>-1.517137421490808</v>
+        <v>-0.8510604417979152</v>
       </c>
       <c r="B439" t="n">
-        <v>-1.207946206889279</v>
+        <v>-0.6744952453871006</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>-0.8961870918009743</v>
+        <v>-0.5029498040766467</v>
       </c>
       <c r="B440" t="n">
-        <v>-1.560315099303677</v>
+        <v>-0.8712224519538139</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.6349194673887883</v>
+        <v>0.3554030387425167</v>
       </c>
       <c r="B441" t="n">
-        <v>0.4211273908154486</v>
+        <v>0.2350149442670349</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>-0.4611378861545493</v>
+        <v>-0.259057097725471</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.7614642495552215</v>
+        <v>-0.4252248071059869</v>
       </c>
       <c r="C442" t="n">
         <v>1</v>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>-0.4301531021259914</v>
+        <v>-0.2416867342485327</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.8101573708263897</v>
+        <v>-0.4524101288892321</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>-0.1274610172037091</v>
+        <v>-0.07199468372959855</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.7965976806969119</v>
+        <v>-0.4448397672071763</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -5325,10 +5325,10 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>-0.8654662180102196</v>
+        <v>-0.4857273911793122</v>
       </c>
       <c r="B445" t="n">
-        <v>0.04465168688578249</v>
+        <v>0.02482892850710916</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.6093157486819101</v>
+        <v>0.3410493514652439</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.7162851332975932</v>
+        <v>-0.4000013508706292</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>-1.822445648197234</v>
+        <v>-1.022219126186426</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.4156273940003045</v>
+        <v>-0.232144430302683</v>
       </c>
       <c r="C447" t="n">
         <v>0</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.4513822607005931</v>
+        <v>0.2525103418375618</v>
       </c>
       <c r="B448" t="n">
-        <v>0.6699124784525013</v>
+        <v>0.3739114143581971</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>-0.03245980201070953</v>
+        <v>-0.01873610244879055</v>
       </c>
       <c r="B449" t="n">
-        <v>-2.066916745465563</v>
+        <v>-1.154057653462805</v>
       </c>
       <c r="C449" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.6506982780106861</v>
+        <v>0.3642487894659532</v>
       </c>
       <c r="B450" t="n">
-        <v>-1.516734520025073</v>
+        <v>-0.8468914573438916</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.9136465901672298</v>
+        <v>0.5116601044390326</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.02958300001185987</v>
+        <v>-0.01661622428053529</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>-0.5828257494710565</v>
+        <v>-0.3272764667742116</v>
       </c>
       <c r="B452" t="n">
-        <v>-1.724030578537666</v>
+        <v>-0.9626246432220392</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>-1.300385575708515</v>
+        <v>-0.7295473035405843</v>
       </c>
       <c r="B453" t="n">
-        <v>1.238987575260524</v>
+        <v>0.6916254820065529</v>
       </c>
       <c r="C453" t="n">
         <v>0</v>
@@ -5424,10 +5424,10 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>-0.3317242576410695</v>
+        <v>-0.1865065915132374</v>
       </c>
       <c r="B454" t="n">
-        <v>0.7447908129124513</v>
+        <v>0.4157159149477392</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>-1.540503190513866</v>
+        <v>-0.8641595132800539</v>
       </c>
       <c r="B455" t="n">
-        <v>0.8051809102892664</v>
+        <v>0.4494316470029426</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -5446,10 +5446,10 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.07662552899777786</v>
+        <v>0.04241816759140448</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.8440322090708589</v>
+        <v>-0.4713224178119911</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -5457,10 +5457,10 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>-0.5316451411112045</v>
+        <v>-0.2985841328414638</v>
       </c>
       <c r="B457" t="n">
-        <v>0.706759237549806</v>
+        <v>0.3944829237743136</v>
       </c>
       <c r="C457" t="n">
         <v>1</v>
@@ -5468,10 +5468,10 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>-0.7535418585814003</v>
+        <v>-0.4229815349096612</v>
       </c>
       <c r="B458" t="n">
-        <v>0.5767087073855933</v>
+        <v>0.3218758405087528</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -5479,10 +5479,10 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>-0.2064356708657077</v>
+        <v>-0.1162686227801293</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.776784776882662</v>
+        <v>-0.9920772603471405</v>
       </c>
       <c r="C459" t="n">
         <v>0</v>
@@ -5490,10 +5490,10 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-1.748033037880406</v>
+        <v>-0.9805027118560969</v>
       </c>
       <c r="B460" t="n">
-        <v>0.5778382623515504</v>
+        <v>0.322506469936889</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>-1.264398051142961</v>
+        <v>-0.7093723563225312</v>
       </c>
       <c r="B461" t="n">
-        <v>-1.336540846828829</v>
+        <v>-0.74628950657009</v>
       </c>
       <c r="C461" t="n">
         <v>0</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.3091617283736518</v>
+        <v>0.1727801640146119</v>
       </c>
       <c r="B462" t="n">
-        <v>1.828738231428152</v>
+        <v>1.020882694139513</v>
       </c>
       <c r="C462" t="n">
         <v>0</v>
@@ -5523,10 +5523,10 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>-1.237367301222516</v>
+        <v>-0.694218661827208</v>
       </c>
       <c r="B463" t="n">
-        <v>-1.210178236139623</v>
+        <v>-0.6757413851254489</v>
       </c>
       <c r="C463" t="n">
         <v>0</v>
@@ -5534,10 +5534,10 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>-0.07789371380668307</v>
+        <v>-0.04420678384349785</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.7348532633900062</v>
+        <v>-0.4103679196651069</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.7804433833570246</v>
+        <v>0.4369851247311063</v>
       </c>
       <c r="B465" t="n">
-        <v>0.4863903431350509</v>
+        <v>0.2714511864510721</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.8060389923934009</v>
+        <v>0.4513342656502646</v>
       </c>
       <c r="B466" t="n">
-        <v>-0.1121165251274646</v>
+        <v>-0.06269461029481997</v>
       </c>
       <c r="C466" t="n">
         <v>1</v>
@@ -5567,10 +5567,10 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1.477966200281217</v>
+        <v>0.8280230242453928</v>
       </c>
       <c r="B467" t="n">
-        <v>0.6347752784563628</v>
+        <v>0.3542943501092707</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -5578,10 +5578,10 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0.9026171771339528</v>
+        <v>0.505476910999675</v>
       </c>
       <c r="B468" t="n">
-        <v>0.3330487070310914</v>
+        <v>0.1858407016139923</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -5589,10 +5589,10 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>0.7377517353979932</v>
+        <v>0.4130517824236569</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.5128867006413942</v>
+        <v>-0.2864442056801738</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>-0.1736527057578624</v>
+        <v>-0.09789018195413517</v>
       </c>
       <c r="B470" t="n">
-        <v>0.7392783567980251</v>
+        <v>0.4126383161129439</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>-0.6051843487496905</v>
+        <v>-0.3398109093556775</v>
       </c>
       <c r="B471" t="n">
-        <v>-1.773932531304912</v>
+        <v>-0.990484854442328</v>
       </c>
       <c r="C471" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.7740516130954002</v>
+        <v>0.4334018377666669</v>
       </c>
       <c r="B472" t="n">
-        <v>1.671913103414767</v>
+        <v>0.9333273791906055</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -5633,10 +5633,10 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.8123797475610595</v>
+        <v>0.4548889530697086</v>
       </c>
       <c r="B473" t="n">
-        <v>0.7069687889672334</v>
+        <v>0.3945999161248588</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -5644,10 +5644,10 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.1348197556604503</v>
+        <v>0.07504240239188827</v>
       </c>
       <c r="B474" t="n">
-        <v>1.764241852180971</v>
+        <v>0.9848744289489425</v>
       </c>
       <c r="C474" t="n">
         <v>0</v>
@@ -5655,10 +5655,10 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>-0.9215966685275775</v>
+        <v>-0.5171946535204719</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.4591955749779831</v>
+        <v>-0.2564685029533751</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -5666,10 +5666,10 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>-0.5673608639471398</v>
+        <v>-0.3186067054348365</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.3977193198254604</v>
+        <v>-0.2221463700787307</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.4692230461964871</v>
+        <v>0.2625120552105561</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.8505596287345729</v>
+        <v>-0.4749666697995386</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -5688,10 +5688,10 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>-0.7489161728184587</v>
+        <v>-0.420388331647107</v>
       </c>
       <c r="B478" t="n">
-        <v>0.48658847487008</v>
+        <v>0.2715618032041499</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>-1.852977230068249</v>
+        <v>-1.039335420240198</v>
       </c>
       <c r="B479" t="n">
-        <v>0.3222071735047245</v>
+        <v>0.1797878840938996</v>
       </c>
       <c r="C479" t="n">
         <v>0</v>
@@ -5710,10 +5710,10 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.8047005239011749</v>
+        <v>0.4505839075328426</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.4053509801560706</v>
+        <v>-0.2264071185461103</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -5721,10 +5721,10 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>1.415842264123782</v>
+        <v>0.7931957570719911</v>
       </c>
       <c r="B481" t="n">
-        <v>0.7554508653266372</v>
+        <v>0.4216674117411373</v>
       </c>
       <c r="C481" t="n">
         <v>0</v>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-0.9268543905751072</v>
+        <v>-0.520142182312092</v>
       </c>
       <c r="B482" t="n">
-        <v>-1.579923036411546</v>
+        <v>-0.8821695439838061</v>
       </c>
       <c r="C482" t="n">
         <v>0</v>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0.06254150440900626</v>
+        <v>0.03452252997457887</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.7319425082272835</v>
+        <v>-0.4087428479164672</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -5754,10 +5754,10 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0.8744443819008801</v>
+        <v>0.4896829750823296</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.04292929937630736</v>
+        <v>-0.02406745010804984</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -5765,10 +5765,10 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-0.3030229939106938</v>
+        <v>-0.1704163911495818</v>
       </c>
       <c r="B485" t="n">
-        <v>-1.521280641379136</v>
+        <v>-0.8494295524310322</v>
       </c>
       <c r="C485" t="n">
         <v>0</v>
@@ -5776,10 +5776,10 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-0.203832124114332</v>
+        <v>-0.1148090498052486</v>
       </c>
       <c r="B486" t="n">
-        <v>0.9189418405079643</v>
+        <v>0.512944262617251</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>-0.718903810326679</v>
+        <v>-0.4035631168964298</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.003060650770271899</v>
+        <v>-0.001808822747064418</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1.029432726533968</v>
+        <v>0.5765709094466416</v>
       </c>
       <c r="B488" t="n">
-        <v>0.36687147298762</v>
+        <v>0.2047239186295353</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>-0.1896028322904547</v>
+        <v>-0.1068319740001577</v>
       </c>
       <c r="B489" t="n">
-        <v>-0.8306838407857881</v>
+        <v>-0.4638700369081245</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -5820,10 +5820,10 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>-1.779882720071964</v>
+        <v>-0.9983579454372773</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.1810849133913282</v>
+        <v>-0.1011995937273586</v>
       </c>
       <c r="C490" t="n">
         <v>0</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>-0.206266808083285</v>
+        <v>-0.1161739567044933</v>
       </c>
       <c r="B491" t="n">
-        <v>-0.8368171666468207</v>
+        <v>-0.467294266712682</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>-1.616498175419851</v>
+        <v>-0.9067630217965156</v>
       </c>
       <c r="B492" t="n">
-        <v>-0.8469405169620847</v>
+        <v>-0.4729461232513575</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0.9776805636105383</v>
+        <v>0.547558156610631</v>
       </c>
       <c r="B493" t="n">
-        <v>0.06657786449645706</v>
+        <v>0.03707029193302936</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>0.08453951823770349</v>
+        <v>0.04685482493661578</v>
       </c>
       <c r="B494" t="n">
-        <v>1.030145037538923</v>
+        <v>0.5750288983048433</v>
       </c>
       <c r="C494" t="n">
         <v>1</v>
@@ -5875,10 +5875,10 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>-0.8633337898690151</v>
+        <v>-0.4845319317606817</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.3191768488589369</v>
+        <v>-0.1782961856761872</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>-0.5438829819362091</v>
+        <v>-0.3054447823495357</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.6259601340913309</v>
+        <v>-0.3495729925236865</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>-1.746456859032965</v>
+        <v>-0.9796190910614684</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.607906354607208</v>
+        <v>-0.3394935851686636</v>
       </c>
       <c r="C497" t="n">
         <v>0</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.2461587471423268</v>
+        <v>0.1374600958446943</v>
       </c>
       <c r="B498" t="n">
-        <v>0.8501354208322293</v>
+        <v>0.474529706088392</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -5919,10 +5919,10 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>-0.1935656357096123</v>
+        <v>-0.1090535591406246</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.8929998172114136</v>
+        <v>-0.4986609853448359</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>-0.5132983738332685</v>
+        <v>-0.2882987612877741</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.9008805767366295</v>
+        <v>-0.5030608056479191</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>0.3502535277611574</v>
+        <v>0.1958166160558631</v>
       </c>
       <c r="B501" t="n">
-        <v>0.7021890943287901</v>
+        <v>0.3919314173024458</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>
